--- a/book/[[ 입출금 내역서 ]]/구글스프레드시트 파일/gagebu.xlsx
+++ b/book/[[ 입출금 내역서 ]]/구글스프레드시트 파일/gagebu.xlsx
@@ -15,7 +15,7 @@
     <sheet state="visible" name="10월" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="11월" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="12월" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="항목" sheetId="13" r:id="rId16"/>
+    <sheet state="hidden" name="항목" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="지출구분">'항목'!$N$4:$N$7</definedName>
@@ -49,9 +49,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="91">
   <si>
-    <t>사용내역서 2025년 01월</t>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>01월</t>
+    </r>
   </si>
   <si>
     <t>월지출합계</t>
@@ -123,6 +140,15 @@
     <t>체크카드</t>
   </si>
   <si>
+    <t>생활용품</t>
+  </si>
+  <si>
+    <t>잡화</t>
+  </si>
+  <si>
+    <t>현금</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -135,6 +161,26 @@
     <t>수입합계</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>02월</t>
+    </r>
+  </si>
+  <si>
     <t>월회비(통장)</t>
   </si>
   <si>
@@ -144,13 +190,207 @@
     <t>축의금</t>
   </si>
   <si>
-    <t>현금</t>
+    <t>소모품</t>
   </si>
   <si>
-    <t>생활용품</t>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>03월</t>
+    </r>
   </si>
   <si>
-    <t>소모품</t>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>04월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>05월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>06월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>07월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>08월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>09월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>10월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>11월</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t xml:space="preserve">사용내역서 2025년 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+        <sz val="14.0"/>
+      </rPr>
+      <t>12월</t>
+    </r>
   </si>
   <si>
     <t>수입</t>
@@ -261,9 +501,6 @@
     <t>주류비</t>
   </si>
   <si>
-    <t>잡화</t>
-  </si>
-  <si>
     <t>접대비</t>
   </si>
   <si>
@@ -300,7 +537,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -309,7 +546,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
     </font>
@@ -330,6 +567,12 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
     </font>
     <font>
@@ -1031,7 +1274,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1057,7 +1300,7 @@
     <xf borderId="5" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1072,268 +1315,268 @@
     <xf borderId="8" fillId="4" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="5" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="7" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="7" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="7" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="8" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="7" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="8" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="8" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="8" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="7" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="7" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="5" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="5" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="8" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="8" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="8" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="8" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="8" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="8" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="8" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="8" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="31" fillId="8" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="7" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="7" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="33" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="7" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="7" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="7" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="37" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="9" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="9" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="39" fillId="9" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="39" fillId="9" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="39" fillId="9" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="39" fillId="9" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="40" fillId="9" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="40" fillId="9" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="41" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="41" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="41" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="41" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="42" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="42" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="43" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="43" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="29" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="44" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="44" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="44" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="44" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="45" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="45" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="46" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="46" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="47" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="47" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="32" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="48" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="48" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="49" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="49" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="50" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="50" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="51" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="51" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="34" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="34" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="36" fillId="8" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1408,11 +1651,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1846657349"/>
-        <c:axId val="1804935676"/>
+        <c:axId val="1709322738"/>
+        <c:axId val="635711711"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1846657349"/>
+        <c:axId val="1709322738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,10 +1715,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1804935676"/>
+        <c:crossAx val="635711711"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1804935676"/>
+        <c:axId val="635711711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1793,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846657349"/>
+        <c:crossAx val="1709322738"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1612,11 +1855,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="207399598"/>
-        <c:axId val="340249562"/>
+        <c:axId val="1033849991"/>
+        <c:axId val="963225717"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="207399598"/>
+        <c:axId val="1033849991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,10 +1911,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340249562"/>
+        <c:crossAx val="963225717"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340249562"/>
+        <c:axId val="963225717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1989,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207399598"/>
+        <c:crossAx val="1033849991"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1808,11 +2051,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="917170805"/>
-        <c:axId val="831007139"/>
+        <c:axId val="348179816"/>
+        <c:axId val="177583848"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="917170805"/>
+        <c:axId val="348179816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,10 +2115,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831007139"/>
+        <c:crossAx val="177583848"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831007139"/>
+        <c:axId val="177583848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +2193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="917170805"/>
+        <c:crossAx val="348179816"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2012,11 +2255,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="176528349"/>
-        <c:axId val="1500366429"/>
+        <c:axId val="326820439"/>
+        <c:axId val="287569852"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="176528349"/>
+        <c:axId val="326820439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,10 +2311,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1500366429"/>
+        <c:crossAx val="287569852"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1500366429"/>
+        <c:axId val="287569852"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2389,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176528349"/>
+        <c:crossAx val="326820439"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2208,11 +2451,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="410605082"/>
-        <c:axId val="750279370"/>
+        <c:axId val="1854341820"/>
+        <c:axId val="210033866"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="410605082"/>
+        <c:axId val="1854341820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,10 +2515,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="750279370"/>
+        <c:crossAx val="210033866"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="750279370"/>
+        <c:axId val="210033866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2593,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410605082"/>
+        <c:crossAx val="1854341820"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2412,11 +2655,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1361292766"/>
-        <c:axId val="1649449820"/>
+        <c:axId val="863129998"/>
+        <c:axId val="48159774"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1361292766"/>
+        <c:axId val="863129998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,10 +2711,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649449820"/>
+        <c:crossAx val="48159774"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1649449820"/>
+        <c:axId val="48159774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2789,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1361292766"/>
+        <c:crossAx val="863129998"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2608,11 +2851,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1827602399"/>
-        <c:axId val="429370794"/>
+        <c:axId val="1211704715"/>
+        <c:axId val="1826557355"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1827602399"/>
+        <c:axId val="1211704715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,10 +2915,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429370794"/>
+        <c:crossAx val="1826557355"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429370794"/>
+        <c:axId val="1826557355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2993,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1827602399"/>
+        <c:crossAx val="1211704715"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2812,11 +3055,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="990293951"/>
-        <c:axId val="2032715842"/>
+        <c:axId val="1133598576"/>
+        <c:axId val="1974743442"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="990293951"/>
+        <c:axId val="1133598576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,10 +3111,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2032715842"/>
+        <c:crossAx val="1974743442"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2032715842"/>
+        <c:axId val="1974743442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,7 +3189,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990293951"/>
+        <c:crossAx val="1133598576"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3008,11 +3251,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1787913762"/>
-        <c:axId val="691266279"/>
+        <c:axId val="2107214151"/>
+        <c:axId val="905672879"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1787913762"/>
+        <c:axId val="2107214151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,10 +3315,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691266279"/>
+        <c:crossAx val="905672879"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691266279"/>
+        <c:axId val="905672879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,7 +3393,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787913762"/>
+        <c:crossAx val="2107214151"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3212,11 +3455,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="663152110"/>
-        <c:axId val="381330540"/>
+        <c:axId val="841718874"/>
+        <c:axId val="1706692910"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="663152110"/>
+        <c:axId val="841718874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,10 +3511,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381330540"/>
+        <c:crossAx val="1706692910"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381330540"/>
+        <c:axId val="1706692910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,7 +3589,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663152110"/>
+        <c:crossAx val="841718874"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3408,11 +3651,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="911385531"/>
-        <c:axId val="1068424726"/>
+        <c:axId val="291682544"/>
+        <c:axId val="1552465572"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="911385531"/>
+        <c:axId val="291682544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,10 +3715,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1068424726"/>
+        <c:crossAx val="1552465572"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1068424726"/>
+        <c:axId val="1552465572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,7 +3793,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911385531"/>
+        <c:crossAx val="291682544"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3622,11 +3865,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="659356951"/>
-        <c:axId val="983011730"/>
+        <c:axId val="1369575586"/>
+        <c:axId val="1233679532"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="659356951"/>
+        <c:axId val="1369575586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,10 +3921,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="983011730"/>
+        <c:crossAx val="1233679532"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="983011730"/>
+        <c:axId val="1233679532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,7 +3999,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659356951"/>
+        <c:crossAx val="1369575586"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3818,11 +4061,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1917556371"/>
-        <c:axId val="51018871"/>
+        <c:axId val="1195417279"/>
+        <c:axId val="391138313"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1917556371"/>
+        <c:axId val="1195417279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,10 +4117,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51018871"/>
+        <c:crossAx val="391138313"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51018871"/>
+        <c:axId val="391138313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +4195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1917556371"/>
+        <c:crossAx val="1195417279"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4014,11 +4257,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="935197834"/>
-        <c:axId val="826454520"/>
+        <c:axId val="1112223952"/>
+        <c:axId val="741484582"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="935197834"/>
+        <c:axId val="1112223952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,10 +4321,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="826454520"/>
+        <c:crossAx val="741484582"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="826454520"/>
+        <c:axId val="741484582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4399,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935197834"/>
+        <c:crossAx val="1112223952"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4218,11 +4461,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1331372460"/>
-        <c:axId val="882286055"/>
+        <c:axId val="94555083"/>
+        <c:axId val="1043864050"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1331372460"/>
+        <c:axId val="94555083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,10 +4517,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="882286055"/>
+        <c:crossAx val="1043864050"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="882286055"/>
+        <c:axId val="1043864050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4352,7 +4595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1331372460"/>
+        <c:crossAx val="94555083"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4414,11 +4657,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="479493206"/>
-        <c:axId val="855702386"/>
+        <c:axId val="1607417106"/>
+        <c:axId val="1828207915"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="479493206"/>
+        <c:axId val="1607417106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,10 +4721,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="855702386"/>
+        <c:crossAx val="1828207915"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="855702386"/>
+        <c:axId val="1828207915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4556,7 +4799,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479493206"/>
+        <c:crossAx val="1607417106"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4618,11 +4861,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2053020096"/>
-        <c:axId val="1653586785"/>
+        <c:axId val="1655935098"/>
+        <c:axId val="1326215694"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2053020096"/>
+        <c:axId val="1655935098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4674,10 +4917,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653586785"/>
+        <c:crossAx val="1326215694"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1653586785"/>
+        <c:axId val="1326215694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4752,7 +4995,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2053020096"/>
+        <c:crossAx val="1655935098"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4824,11 +5067,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1671714030"/>
-        <c:axId val="2047184875"/>
+        <c:axId val="1487748428"/>
+        <c:axId val="766684215"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1671714030"/>
+        <c:axId val="1487748428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,10 +5131,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2047184875"/>
+        <c:crossAx val="766684215"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047184875"/>
+        <c:axId val="766684215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4966,7 +5209,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671714030"/>
+        <c:crossAx val="1487748428"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5038,11 +5281,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="638008609"/>
-        <c:axId val="1791998063"/>
+        <c:axId val="428636329"/>
+        <c:axId val="1200557568"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="638008609"/>
+        <c:axId val="428636329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5094,10 +5337,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1791998063"/>
+        <c:crossAx val="1200557568"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1791998063"/>
+        <c:axId val="1200557568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5172,7 +5415,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638008609"/>
+        <c:crossAx val="428636329"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5234,11 +5477,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96502134"/>
-        <c:axId val="1153602245"/>
+        <c:axId val="346252491"/>
+        <c:axId val="958795983"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="96502134"/>
+        <c:axId val="346252491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5298,10 +5541,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153602245"/>
+        <c:crossAx val="958795983"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1153602245"/>
+        <c:axId val="958795983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5376,7 +5619,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96502134"/>
+        <c:crossAx val="346252491"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5438,11 +5681,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1695759913"/>
-        <c:axId val="2081674939"/>
+        <c:axId val="573519568"/>
+        <c:axId val="780143450"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1695759913"/>
+        <c:axId val="573519568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5494,10 +5737,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081674939"/>
+        <c:crossAx val="780143450"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081674939"/>
+        <c:axId val="780143450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,7 +5815,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1695759913"/>
+        <c:crossAx val="573519568"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5634,11 +5877,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="427949460"/>
-        <c:axId val="1642669001"/>
+        <c:axId val="1581930040"/>
+        <c:axId val="1167748478"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="427949460"/>
+        <c:axId val="1581930040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5698,10 +5941,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1642669001"/>
+        <c:crossAx val="1167748478"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1642669001"/>
+        <c:axId val="1167748478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5776,7 +6019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427949460"/>
+        <c:crossAx val="1581930040"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5838,11 +6081,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2133379462"/>
-        <c:axId val="415651827"/>
+        <c:axId val="2104451708"/>
+        <c:axId val="1120348440"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2133379462"/>
+        <c:axId val="2104451708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,10 +6137,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415651827"/>
+        <c:crossAx val="1120348440"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415651827"/>
+        <c:axId val="1120348440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +6215,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133379462"/>
+        <c:crossAx val="2104451708"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6034,11 +6277,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="683358100"/>
-        <c:axId val="488529013"/>
+        <c:axId val="498917591"/>
+        <c:axId val="1677834045"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="683358100"/>
+        <c:axId val="498917591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6098,10 +6341,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488529013"/>
+        <c:crossAx val="1677834045"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488529013"/>
+        <c:axId val="1677834045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6176,7 +6419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683358100"/>
+        <c:crossAx val="498917591"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6239,11 +6482,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8220075" cy="2743200"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6321,12 +6564,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8010525" cy="2647950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6405,11 +6648,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8039100" cy="2657475"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6488,11 +6731,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8010525" cy="2647950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6575,11 +6818,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8010525" cy="2647950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6657,12 +6900,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="7981950" cy="2638425"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6740,12 +6983,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8001000" cy="2647950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6823,12 +7066,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8020050" cy="2657475"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6906,12 +7149,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="7981950" cy="2638425"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -6990,11 +7233,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8039100" cy="2657475"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -7072,12 +7315,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="8010525" cy="2647950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -7155,12 +7398,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10887075" cy="3590925"/>
+    <xdr:ext cx="7991475" cy="2638425"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
@@ -7381,10 +7624,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -7417,7 +7664,7 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(G5:G33)</f>
-        <v>120000</v>
+        <v>175000</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -7431,7 +7678,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(I2-G2)</f>
-        <v>2880000</v>
+        <v>2825000</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -7513,12 +7760,12 @@
         <v>통신비</v>
       </c>
       <c r="N5" s="34">
-        <f t="shared" ref="N5:N14" si="1">SUMIF($C$5:$C$33,M5,$G$5:$G$33)</f>
+        <f t="shared" ref="N5:N10" si="1">SUMIF($C$5:$C$33,M5,$G$5:$G$33)</f>
         <v>50000</v>
       </c>
       <c r="O5" s="35">
         <f t="shared" ref="O5:O15" si="2">IF((N5=0),"",SUM(N5/$N$15))</f>
-        <v>0.4166666667</v>
+        <v>0.2857142857</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
@@ -7590,16 +7837,28 @@
       </c>
       <c r="O7" s="35">
         <f t="shared" si="2"/>
-        <v>0.5833333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="23">
+        <v>45677.0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="28">
+        <v>55000.0</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
       <c r="J8" s="31"/>
@@ -7634,14 +7893,14 @@
       </c>
       <c r="N9" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="35" t="str">
+        <v>55000</v>
+      </c>
+      <c r="O9" s="35">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.3142857143</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -7684,7 +7943,7 @@
         <v>용돈</v>
       </c>
       <c r="N11" s="34">
-        <f t="shared" si="1"/>
+        <f> SUMIF( $C$5:$C$33 , M11 , $G$5:$G$33 )</f>
         <v>0</v>
       </c>
       <c r="O11" s="35" t="str">
@@ -7708,7 +7967,7 @@
         <v>경조교제비</v>
       </c>
       <c r="N12" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N12:N14" si="3">SUMIF($C$5:$C$33,M12,$G$5:$G$33)</f>
         <v>0</v>
       </c>
       <c r="O12" s="35" t="str">
@@ -7716,7 +7975,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -7735,7 +7994,7 @@
         <v>문화생활비</v>
       </c>
       <c r="N13" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="35" t="str">
@@ -7759,7 +8018,7 @@
         <v>예비비</v>
       </c>
       <c r="N14" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="41" t="str">
@@ -7779,11 +8038,11 @@
       <c r="J15" s="31"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
-        <v>120000</v>
+        <v>175000</v>
       </c>
       <c r="O15" s="44">
         <f t="shared" si="2"/>
@@ -7814,7 +8073,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -7858,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="55" t="str">
-        <f t="shared" ref="O19:O26" si="3">IF((N19=0),"",SUM(N19/$N$26))</f>
+        <f t="shared" ref="O19:O26" si="4">IF((N19=0),"",SUM(N19/$N$26))</f>
         <v/>
       </c>
     </row>
@@ -7882,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7906,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7930,7 +8189,7 @@
         <v>3000000</v>
       </c>
       <c r="O22" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7954,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -7978,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8002,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8018,14 +8277,14 @@
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
         <v>3000000</v>
       </c>
       <c r="O26" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9142,10 +9401,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -9167,7 +9430,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9191,7 +9454,7 @@
       </c>
       <c r="K2" s="9">
         <f>'09월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -9365,7 +9628,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -9440,7 +9703,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -9503,7 +9766,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -9538,7 +9801,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -9742,7 +10005,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -10866,10 +11129,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -10891,7 +11158,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -10915,7 +11182,7 @@
       </c>
       <c r="K2" s="9">
         <f>'10월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -11089,7 +11356,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -11164,7 +11431,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -11227,7 +11494,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -11262,7 +11529,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -11466,7 +11733,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -12590,10 +12857,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -12615,7 +12886,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -12639,7 +12910,7 @@
       </c>
       <c r="K2" s="9">
         <f>'11월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -12813,7 +13084,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -12888,7 +13159,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -12951,7 +13222,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -12986,7 +13257,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -13190,7 +13461,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -14314,6 +14585,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFF99"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -14332,16 +14604,16 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="36.75" customHeight="1">
       <c r="B2" s="75" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="77" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
@@ -14357,31 +14629,31 @@
         <v>15</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3" s="80" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I3" s="80" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" s="80" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L3" s="82" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M3" s="83" t="s">
         <v>10</v>
@@ -14392,78 +14664,78 @@
     </row>
     <row r="4" ht="21.75" customHeight="1">
       <c r="B4" s="84" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H4" s="85" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I4" s="85" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J4" s="85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4" s="85" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L4" s="88" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M4" s="89" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N4" s="89" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="21.75" customHeight="1">
       <c r="B5" s="84" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E5" s="90" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J5" s="90" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K5" s="87" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L5" s="91" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="M5" s="89" t="s">
         <v>18</v>
@@ -14474,30 +14746,30 @@
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="B6" s="92" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="L6" s="93"/>
       <c r="M6" s="94"/>
@@ -14511,55 +14783,55 @@
       </c>
       <c r="C7" s="90"/>
       <c r="D7" s="90" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G7" s="90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="90"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K7" s="87" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L7" s="93"/>
       <c r="M7" s="96"/>
       <c r="N7" s="94" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="B8" s="92" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C8" s="90"/>
       <c r="D8" s="97" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H8" s="90"/>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
       <c r="K8" s="87" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="L8" s="93"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="B9" s="92" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C9" s="98"/>
       <c r="D9" s="90"/>
@@ -14574,7 +14846,7 @@
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="B10" s="92" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="90"/>
       <c r="D10" s="100"/>
@@ -15600,10 +15872,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -15625,7 +15901,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -15649,7 +15925,7 @@
       </c>
       <c r="K2" s="9">
         <f>'01월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -15711,7 +15987,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>17</v>
@@ -15744,16 +16020,16 @@
         <v>45693.0</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" s="28">
         <v>150000.0</v>
@@ -15780,10 +16056,10 @@
         <v>45694.0</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>17</v>
@@ -15859,7 +16135,7 @@
         <v>0.04929108805</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -15934,7 +16210,7 @@
         <v>0.9507089119</v>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -15997,7 +16273,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -16032,7 +16308,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -16236,7 +16512,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -17360,10 +17636,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -17385,7 +17665,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -17409,7 +17689,7 @@
       </c>
       <c r="K2" s="9">
         <f>'02월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -17583,7 +17863,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -17658,7 +17938,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -17721,7 +18001,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -17756,7 +18036,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -17960,7 +18240,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -19084,10 +19364,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -19109,7 +19393,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -19133,7 +19417,7 @@
       </c>
       <c r="K2" s="9">
         <f>'03월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -19307,7 +19591,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -19382,7 +19666,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -19445,7 +19729,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -19480,7 +19764,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -19684,7 +19968,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -20808,10 +21092,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -20833,7 +21121,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -20857,7 +21145,7 @@
       </c>
       <c r="K2" s="9">
         <f>'04월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -21031,7 +21319,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -21106,7 +21394,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -21169,7 +21457,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -21204,7 +21492,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -21408,7 +21696,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -22532,10 +22820,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -22557,7 +22849,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -22581,7 +22873,7 @@
       </c>
       <c r="K2" s="9">
         <f>'05월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -22755,7 +23047,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -22830,7 +23122,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -22893,7 +23185,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -22928,7 +23220,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -23132,7 +23424,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -24256,10 +24548,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -24281,7 +24577,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -24305,7 +24601,7 @@
       </c>
       <c r="K2" s="9">
         <f>'06월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -24479,7 +24775,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -24554,7 +24850,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -24617,7 +24913,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -24652,7 +24948,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -24856,7 +25152,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -25980,10 +26276,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCCCCFF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -26005,7 +26305,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -26029,7 +26329,7 @@
       </c>
       <c r="K2" s="9">
         <f>'07월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -26203,7 +26503,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -26278,7 +26578,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -26341,7 +26641,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -26376,7 +26676,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -26580,7 +26880,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
@@ -27704,10 +28004,14 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -27729,7 +28033,7 @@
     <row r="1" ht="9.0" customHeight="1"/>
     <row r="2" ht="43.5" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -27753,7 +28057,7 @@
       </c>
       <c r="K2" s="9">
         <f>'08월'!K2 + (I2 - G2)</f>
-        <v>2972223</v>
+        <v>2917223</v>
       </c>
     </row>
     <row r="3" ht="4.5" customHeight="1">
@@ -27927,7 +28231,7 @@
         <v/>
       </c>
       <c r="R9" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -28002,7 +28306,7 @@
         <v/>
       </c>
       <c r="S12" s="38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -28065,7 +28369,7 @@
       <c r="J15" s="70"/>
       <c r="K15" s="32"/>
       <c r="M15" s="42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N15" s="43">
         <f>SUM(N5:N14)</f>
@@ -28100,7 +28404,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="32"/>
       <c r="M17" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N17" s="50" t="s">
         <v>13</v>
@@ -28304,7 +28608,7 @@
       <c r="J26" s="70"/>
       <c r="K26" s="32"/>
       <c r="M26" s="42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="43">
         <f>SUM(N19:N25)</f>
